--- a/Cronograma/Cronograma-Actividades_Herrera.xlsx
+++ b/Cronograma/Cronograma-Actividades_Herrera.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SEMESTRE\Semestre Oct24-Maz25\Practicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR-ALF\Documents\GitHub\5166_Documentacion_PPP_Herrera\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4104DE8B-CB14-437C-B663-67BCFB5DF7B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A7C72E-3846-4376-98AA-69A088DCFBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Activity</t>
   </si>
@@ -664,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -691,44 +691,53 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5508007A-8F80-4A7F-BD52-B55F5D6EC2B9}">
-  <dimension ref="C2:J36"/>
+  <dimension ref="C2:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,16 +1066,16 @@
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="9" width="34.42578125" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" customWidth="1"/>
+    <col min="9" max="10" width="34.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1091,522 +1100,593 @@
       <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="3" t="s">
+      <c r="K4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="23">
         <v>45559</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="23">
         <v>45562</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="23">
         <v>45559</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="19">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="19">
         <v>0.58333333333333337</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="6"/>
+      <c r="K5" s="20">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="20"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
       <c r="I6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="20"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
       <c r="I7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="20"/>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="20"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="3" t="s">
+      <c r="J8" s="6"/>
+      <c r="K8" s="20"/>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="23">
         <v>45565</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="23">
         <v>45588</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="23">
         <v>45565</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="19">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="19">
         <v>0.58333333333333337</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="6"/>
+      <c r="K9" s="20">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+    <row r="10" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="20"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
       <c r="I10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="20"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
       <c r="I11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="3:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C12" s="20"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
       <c r="I12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="20"/>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="20"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
       <c r="I13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="20"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
       <c r="I14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="20"/>
+    </row>
+    <row r="15" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="20"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
       <c r="I15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C16" s="20"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
       <c r="I16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="20"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
       <c r="I17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
       <c r="I18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="3:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="20"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
       <c r="I19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="3:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="3:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="20"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
       <c r="I20" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
+      <c r="J20" s="6"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="21">
         <v>45590</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="21">
         <v>45594</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="21">
         <v>45590</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="22">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="22">
         <v>0.58333333333333337</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="6"/>
+      <c r="K21" s="20">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+    <row r="22" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="3:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
+      <c r="J23" s="6"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="21">
         <v>45596</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="21">
         <v>45604</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="21">
         <v>45596</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="22">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="22">
         <v>0.58333333333333337</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="6"/>
+      <c r="K24" s="20">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+    <row r="25" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
       <c r="I25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="3:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="20"/>
+    </row>
+    <row r="26" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="3:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
+      <c r="J26" s="6"/>
+      <c r="K26" s="20"/>
+    </row>
+    <row r="27" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="21">
         <v>45607</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="21">
         <v>45615</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="21">
         <v>45607</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="22">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="22">
         <v>0.58333333333333337</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="6"/>
+      <c r="K27" s="20">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
+    <row r="28" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="20"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="20"/>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="20"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="3:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="20"/>
+    </row>
+    <row r="30" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="3:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="9" t="s">
+      <c r="J30" s="6"/>
+      <c r="K30" s="20"/>
+    </row>
+    <row r="31" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D31" s="7">
         <v>45616</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="7">
         <v>45616</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="7">
         <v>45616</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H31" s="16">
+      <c r="H31" s="8">
         <v>0.58333333333333337</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="6"/>
+      <c r="K31" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="3:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="17" t="s">
+    <row r="32" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="15">
         <v>45617</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="15">
         <v>45618</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="15">
         <v>45618</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="17">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="17">
         <v>0.58333333333333337</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="24"/>
+      <c r="K32" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="18"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+    <row r="33" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="14"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
       <c r="I33" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J33" s="18"/>
-    </row>
-    <row r="34" spans="3:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="C34" s="9" t="s">
+      <c r="J33" s="25"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="4">
         <v>45621</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="4">
         <v>45621</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="4">
         <v>45621</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I34" s="12" t="s">
+      <c r="I34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="9"/>
+      <c r="K34" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="C35" s="9" t="s">
+    <row r="35" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="4">
         <v>45622</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="4">
         <v>45622</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="4">
         <v>45622</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="13" t="s">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="14">
-        <f>SUM(J5:J35)</f>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="11">
+        <f>SUM(K5:K35)</f>
         <v>240</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="D9:D20"/>
+    <mergeCell ref="E9:E20"/>
+    <mergeCell ref="F9:F20"/>
+    <mergeCell ref="G9:G20"/>
+    <mergeCell ref="H9:H20"/>
+    <mergeCell ref="K9:K20"/>
     <mergeCell ref="C36:I36"/>
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="D32:D33"/>
@@ -1614,42 +1694,6 @@
     <mergeCell ref="F32:F33"/>
     <mergeCell ref="G32:G33"/>
     <mergeCell ref="H32:H33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="J5:J8"/>
-    <mergeCell ref="C9:C20"/>
-    <mergeCell ref="D9:D20"/>
-    <mergeCell ref="E9:E20"/>
-    <mergeCell ref="F9:F20"/>
-    <mergeCell ref="G9:G20"/>
-    <mergeCell ref="H9:H20"/>
-    <mergeCell ref="J9:J20"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="C24:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma/Cronograma-Actividades_Herrera.xlsx
+++ b/Cronograma/Cronograma-Actividades_Herrera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR-ALF\Documents\GitHub\5166_Documentacion_PPP_Herrera\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A7C72E-3846-4376-98AA-69A088DCFBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14509DAB-8651-4DAB-8B54-FF05072B793C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="5" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>Activity</t>
   </si>
@@ -476,7 +476,100 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">11/11 -14/11: </t>
+      <t>15/11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Modificación de codigo fuente para obtención del apk</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18/11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Prueba de modificaciones. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19/11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Prueba y validación de modificaciones. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reconocimiento del departamento y organización del mismo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22/11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Realización de ponchado y manejo de redes</t>
+    </r>
+  </si>
+  <si>
+    <t>Configuración del router y ordenadores para asegurar la conectividad y seguridad de la red del proyecto.</t>
+  </si>
+  <si>
+    <t>Total Hours</t>
+  </si>
+  <si>
+    <t>12/11:</t>
+  </si>
+  <si>
+    <t>13/11:</t>
+  </si>
+  <si>
+    <t>14/11:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/11: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11/11: </t>
     </r>
     <r>
       <rPr>
@@ -490,82 +583,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>15/11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Modificación de codigo fuente para obtención del apk</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18/11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Prueba de modificaciones. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>19/11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Prueba y validación de modificaciones. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21/11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reconocimiento del departamento y organización del mismo</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">22/11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Realización de ponchado y manejo de redes</t>
-    </r>
-  </si>
-  <si>
-    <t>Configuración del router y ordenadores para asegurar la conectividad y seguridad de la red del proyecto.</t>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                    </t>
+  </si>
+  <si>
+    <t>17/10:</t>
+  </si>
+  <si>
+    <t>18/10:</t>
+  </si>
+  <si>
+    <t>21/10:</t>
+  </si>
+  <si>
+    <t>22/10:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23/10: </t>
   </si>
 </sst>
 </file>
@@ -611,7 +644,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -634,37 +667,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -676,68 +683,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,10 +1026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5508007A-8F80-4A7F-BD52-B55F5D6EC2B9}">
-  <dimension ref="C2:K36"/>
+  <dimension ref="C1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,10 +1039,16 @@
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="9" max="10" width="34.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="2" spans="3:11" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>23</v>
@@ -1101,599 +1080,799 @@
         <v>7</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="9">
         <v>45559</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="9">
         <v>45562</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="9">
         <v>45559</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="20">
+      <c r="J5" s="11">
+        <v>6</v>
+      </c>
+      <c r="K5" s="7">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="20"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="6" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="20"/>
+      <c r="J6" s="11">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="20"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="6" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="20"/>
+      <c r="J7" s="11">
+        <v>6</v>
+      </c>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="20"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="6" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="20"/>
+      <c r="J8" s="11">
+        <v>6</v>
+      </c>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="9">
         <v>45565</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="9">
         <v>45588</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="9">
         <v>45565</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="20">
+      <c r="J9" s="11">
+        <v>6</v>
+      </c>
+      <c r="K9" s="7">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="20"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="6" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="20"/>
+      <c r="J10" s="11">
+        <v>6</v>
+      </c>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="20"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="6" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="20"/>
+      <c r="J11" s="11">
+        <v>6</v>
+      </c>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C12" s="20"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="6" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="20"/>
+      <c r="J12" s="11">
+        <v>6</v>
+      </c>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="20"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="6" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="20"/>
+      <c r="J13" s="11">
+        <v>6</v>
+      </c>
+      <c r="K13" s="7"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="6" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="20"/>
+      <c r="J14" s="11">
+        <v>6</v>
+      </c>
+      <c r="K14" s="7"/>
     </row>
     <row r="15" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="6" t="s">
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="20"/>
+      <c r="J15" s="11">
+        <v>6</v>
+      </c>
+      <c r="K15" s="7"/>
     </row>
     <row r="16" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="20"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="6" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="20"/>
+      <c r="J16" s="11">
+        <v>6</v>
+      </c>
+      <c r="K16" s="7"/>
     </row>
     <row r="17" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="20"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="6" t="s">
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="20"/>
+      <c r="J17" s="11">
+        <v>6</v>
+      </c>
+      <c r="K17" s="7"/>
     </row>
     <row r="18" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C18" s="20"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="6" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="20"/>
+      <c r="J18" s="11">
+        <v>6</v>
+      </c>
+      <c r="K18" s="7"/>
     </row>
     <row r="19" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="20"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="6" t="s">
+      <c r="C19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="3:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="20"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="6" t="s">
+      <c r="J19" s="11">
+        <v>6</v>
+      </c>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="20" t="s">
+      <c r="J20" s="11">
+        <v>6</v>
+      </c>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="11">
+        <v>6</v>
+      </c>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J22" s="11">
+        <v>6</v>
+      </c>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="11">
+        <v>6</v>
+      </c>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="7"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="11">
+        <v>6</v>
+      </c>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="3:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="11">
+        <v>6</v>
+      </c>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D26" s="9">
         <v>45590</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E26" s="9">
         <v>45594</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F26" s="9">
         <v>45590</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G26" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H21" s="22">
+      <c r="H26" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="20">
+      <c r="J26" s="11">
+        <v>6</v>
+      </c>
+      <c r="K26" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="6" t="s">
+    <row r="27" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="7"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="6" t="s">
+      <c r="J27" s="11">
+        <v>6</v>
+      </c>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="7"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C24" s="20" t="s">
+      <c r="J28" s="11">
+        <v>6</v>
+      </c>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C29" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D29" s="9">
         <v>45596</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E29" s="9">
         <v>45604</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F29" s="9">
         <v>45596</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G29" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H29" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="20">
+      <c r="J29" s="11">
+        <v>6</v>
+      </c>
+      <c r="K29" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="6" t="s">
+    <row r="30" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C30" s="7"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="6" t="s">
+      <c r="J30" s="11">
+        <v>6</v>
+      </c>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J31" s="11">
+        <v>6</v>
+      </c>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C32" s="7"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="20"/>
-    </row>
-    <row r="27" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C27" s="20" t="s">
+      <c r="J32" s="11">
+        <v>6</v>
+      </c>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="3:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="C33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D33" s="9">
         <v>45607</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E33" s="9">
         <v>45615</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F33" s="9">
         <v>45607</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G33" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H33" s="8">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I33" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="11">
+        <v>6</v>
+      </c>
+      <c r="K33" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="7"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J34" s="11">
+        <v>6</v>
+      </c>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="7"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="11">
+        <v>6</v>
+      </c>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="7"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" s="11">
+        <v>6</v>
+      </c>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C37" s="7"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="20">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="6" t="s">
+      <c r="J37" s="11">
+        <v>6</v>
+      </c>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="7"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="20"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="6" t="s">
+      <c r="J38" s="11">
+        <v>6</v>
+      </c>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="3:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="7"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="20"/>
-    </row>
-    <row r="30" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="6" t="s">
+      <c r="J39" s="11">
+        <v>6</v>
+      </c>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45616</v>
+      </c>
+      <c r="E40" s="4">
+        <v>45616</v>
+      </c>
+      <c r="F40" s="4">
+        <v>45616</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="11">
+        <v>6</v>
+      </c>
+      <c r="K40" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="9">
+        <v>45617</v>
+      </c>
+      <c r="E41" s="9">
+        <v>45618</v>
+      </c>
+      <c r="F41" s="9">
+        <v>45618</v>
+      </c>
+      <c r="G41" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H41" s="8">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="I41" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="20"/>
-    </row>
-    <row r="31" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="7">
-        <v>45616</v>
-      </c>
-      <c r="E31" s="7">
-        <v>45616</v>
-      </c>
-      <c r="F31" s="7">
-        <v>45616</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="J41" s="11">
+        <v>6</v>
+      </c>
+      <c r="K41" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="7"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J42" s="11">
+        <v>6</v>
+      </c>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="3:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="C43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45621</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45621</v>
+      </c>
+      <c r="F43" s="4">
+        <v>45621</v>
+      </c>
+      <c r="G43" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H43" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="15">
-        <v>45617</v>
-      </c>
-      <c r="E32" s="15">
-        <v>45618</v>
-      </c>
-      <c r="F32" s="15">
-        <v>45618</v>
-      </c>
-      <c r="G32" s="17">
+      <c r="I43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J43" s="3">
+        <v>6</v>
+      </c>
+      <c r="K43" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="C44" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45622</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45622</v>
+      </c>
+      <c r="F44" s="4">
+        <v>45622</v>
+      </c>
+      <c r="G44" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H44" s="5">
         <v>0.58333333333333337</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" s="24"/>
-      <c r="K32" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="14"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="3:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="4">
-        <v>45621</v>
-      </c>
-      <c r="E34" s="4">
-        <v>45621</v>
-      </c>
-      <c r="F34" s="4">
-        <v>45621</v>
-      </c>
-      <c r="G34" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H34" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="4">
-        <v>45622</v>
-      </c>
-      <c r="E35" s="4">
-        <v>45622</v>
-      </c>
-      <c r="F35" s="4">
-        <v>45622</v>
-      </c>
-      <c r="G35" s="5">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H35" s="5">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="I35" s="3" t="s">
+      <c r="I44" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" s="12" t="s">
+      <c r="J44" s="3">
+        <v>6</v>
+      </c>
+      <c r="K44" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="11">
-        <f>SUM(K5:K35)</f>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="6">
+        <f>SUM(J5:J44)</f>
+        <v>240</v>
+      </c>
+      <c r="K45" s="6">
+        <f>SUM(K5:K44)</f>
         <v>240</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="F27:F30"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="H27:H30"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="K33:K39"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="K5:K8"/>
+    <mergeCell ref="C9:C25"/>
+    <mergeCell ref="D9:D25"/>
+    <mergeCell ref="E9:E25"/>
+    <mergeCell ref="F9:F25"/>
+    <mergeCell ref="G9:G25"/>
+    <mergeCell ref="H9:H25"/>
+    <mergeCell ref="K9:K25"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:D8"/>
     <mergeCell ref="E5:E8"/>
     <mergeCell ref="F5:F8"/>
     <mergeCell ref="G5:G8"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="K5:K8"/>
-    <mergeCell ref="C9:C20"/>
-    <mergeCell ref="D9:D20"/>
-    <mergeCell ref="E9:E20"/>
-    <mergeCell ref="F9:F20"/>
-    <mergeCell ref="G9:G20"/>
-    <mergeCell ref="H9:H20"/>
-    <mergeCell ref="K9:K20"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="H33:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma/Cronograma-Actividades_Herrera.xlsx
+++ b/Cronograma/Cronograma-Actividades_Herrera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR-ALF\Documents\GitHub\5166_Documentacion_PPP_Herrera\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1F65D7-24D4-4A7C-81BD-021CDD5A889A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3365B28A-2069-404E-9965-F8BDA3BFBF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
@@ -979,17 +979,17 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1307,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5508007A-8F80-4A7F-BD52-B55F5D6EC2B9}">
   <dimension ref="C1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,8 +1362,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C5" s="10" t="s">
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="11">
@@ -1375,10 +1375,10 @@
       <c r="F5" s="11">
         <v>45559</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="10">
         <v>0.58333333333333337</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -1387,57 +1387,57 @@
       <c r="J5" s="7">
         <v>6</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="10"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="7">
         <v>6</v>
       </c>
-      <c r="K6" s="10"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="10"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="7">
         <v>6</v>
       </c>
-      <c r="K7" s="10"/>
+      <c r="K7" s="9"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="10"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="7">
         <v>6</v>
       </c>
-      <c r="K8" s="10"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>51</v>
       </c>
       <c r="D9" s="11">
@@ -1447,12 +1447,12 @@
         <v>45588</v>
       </c>
       <c r="F9" s="11">
-        <v>45565</v>
-      </c>
-      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="10">
         <v>0.58333333333333337</v>
       </c>
       <c r="I9" s="7" t="s">
@@ -1461,252 +1461,252 @@
       <c r="J9" s="7">
         <v>6</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="10"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
       <c r="I10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="7">
         <v>6</v>
       </c>
-      <c r="K10" s="10"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="7">
         <v>6</v>
       </c>
-      <c r="K11" s="10"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="10"/>
+      <c r="C12" s="9"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
       <c r="I12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="J12" s="7">
         <v>6</v>
       </c>
-      <c r="K12" s="10"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="10"/>
+      <c r="C13" s="9"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
       <c r="I13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="7">
         <v>6</v>
       </c>
-      <c r="K13" s="10"/>
+      <c r="K13" s="9"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
       <c r="I14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="7">
         <v>6</v>
       </c>
-      <c r="K14" s="10"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="10"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="7">
         <v>6</v>
       </c>
-      <c r="K15" s="10"/>
+      <c r="K15" s="9"/>
     </row>
     <row r="16" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="10"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J16" s="7">
         <v>6</v>
       </c>
-      <c r="K16" s="10"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="10"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
       <c r="I17" s="7" t="s">
         <v>44</v>
       </c>
       <c r="J17" s="7">
         <v>6</v>
       </c>
-      <c r="K17" s="10"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="10"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
       <c r="I18" s="7" t="s">
         <v>56</v>
       </c>
       <c r="J18" s="7">
         <v>6</v>
       </c>
-      <c r="K18" s="10"/>
+      <c r="K18" s="9"/>
     </row>
     <row r="19" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="10"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
       <c r="I19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="J19" s="7">
         <v>6</v>
       </c>
-      <c r="K19" s="10"/>
+      <c r="K19" s="9"/>
     </row>
     <row r="20" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="10"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
       <c r="I20" s="8" t="s">
         <v>58</v>
       </c>
       <c r="J20" s="7">
         <v>6</v>
       </c>
-      <c r="K20" s="10"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="10"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="7">
         <v>6</v>
       </c>
-      <c r="K21" s="10"/>
+      <c r="K21" s="9"/>
     </row>
     <row r="22" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
       <c r="I22" s="8" t="s">
         <v>59</v>
       </c>
       <c r="J22" s="7">
         <v>6</v>
       </c>
-      <c r="K22" s="10"/>
+      <c r="K22" s="9"/>
     </row>
     <row r="23" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="10"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
         <v>54</v>
       </c>
       <c r="J23" s="7">
         <v>6</v>
       </c>
-      <c r="K23" s="10"/>
+      <c r="K23" s="9"/>
     </row>
     <row r="24" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="10"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
       <c r="I24" s="8" t="s">
         <v>60</v>
       </c>
       <c r="J24" s="7">
         <v>6</v>
       </c>
-      <c r="K24" s="10"/>
+      <c r="K24" s="9"/>
     </row>
     <row r="25" spans="3:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="10"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
       <c r="I25" s="8" t="s">
         <v>28</v>
       </c>
       <c r="J25" s="7">
         <v>6</v>
       </c>
-      <c r="K25" s="10"/>
+      <c r="K25" s="9"/>
     </row>
     <row r="26" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="11">
@@ -1718,10 +1718,10 @@
       <c r="F26" s="11">
         <v>45590</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G26" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="10">
         <v>0.58333333333333337</v>
       </c>
       <c r="I26" s="7" t="s">
@@ -1730,42 +1730,42 @@
       <c r="J26" s="7">
         <v>6</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="10"/>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="9"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
       <c r="I27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="7">
         <v>6</v>
       </c>
-      <c r="K27" s="10"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="10"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
       <c r="I28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J28" s="7">
         <v>6</v>
       </c>
-      <c r="K28" s="10"/>
+      <c r="K28" s="9"/>
     </row>
     <row r="29" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="11">
@@ -1777,10 +1777,10 @@
       <c r="F29" s="11">
         <v>45596</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="10">
         <v>0.58333333333333337</v>
       </c>
       <c r="I29" s="7" t="s">
@@ -1789,57 +1789,57 @@
       <c r="J29" s="7">
         <v>6</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="10"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J30" s="7">
         <v>6</v>
       </c>
-      <c r="K30" s="10"/>
+      <c r="K30" s="9"/>
     </row>
     <row r="31" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="10"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="J31" s="7">
         <v>6</v>
       </c>
-      <c r="K31" s="10"/>
+      <c r="K31" s="9"/>
     </row>
     <row r="32" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C32" s="10"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="7">
         <v>6</v>
       </c>
-      <c r="K32" s="10"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="11">
@@ -1851,10 +1851,10 @@
       <c r="F33" s="11">
         <v>45607</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="10">
         <v>0.58333333333333337</v>
       </c>
       <c r="I33" s="7" t="s">
@@ -1863,99 +1863,99 @@
       <c r="J33" s="7">
         <v>6</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="10"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="8" t="s">
         <v>42</v>
       </c>
       <c r="J34" s="7">
         <v>6</v>
       </c>
-      <c r="K34" s="10"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C35" s="10"/>
+      <c r="C35" s="9"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="J35" s="7">
         <v>6</v>
       </c>
-      <c r="K35" s="10"/>
+      <c r="K35" s="9"/>
     </row>
     <row r="36" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="10"/>
+      <c r="C36" s="9"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
       <c r="I36" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J36" s="7">
         <v>6</v>
       </c>
-      <c r="K36" s="10"/>
+      <c r="K36" s="9"/>
     </row>
     <row r="37" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="10"/>
+      <c r="C37" s="9"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
       <c r="I37" s="7" t="s">
         <v>49</v>
       </c>
       <c r="J37" s="7">
         <v>6</v>
       </c>
-      <c r="K37" s="10"/>
+      <c r="K37" s="9"/>
     </row>
     <row r="38" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C38" s="10"/>
+      <c r="C38" s="9"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
       <c r="I38" s="7" t="s">
         <v>52</v>
       </c>
       <c r="J38" s="7">
         <v>6</v>
       </c>
-      <c r="K38" s="10"/>
+      <c r="K38" s="9"/>
     </row>
     <row r="39" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="10"/>
+      <c r="C39" s="9"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
       <c r="I39" s="7" t="s">
         <v>53</v>
       </c>
       <c r="J39" s="7">
         <v>6</v>
       </c>
-      <c r="K39" s="10"/>
+      <c r="K39" s="9"/>
     </row>
     <row r="40" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
@@ -1987,7 +1987,7 @@
       </c>
     </row>
     <row r="41" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="11">
@@ -1999,10 +1999,10 @@
       <c r="F41" s="11">
         <v>45618</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G41" s="10">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="10">
         <v>0.58333333333333337</v>
       </c>
       <c r="I41" s="7" t="s">
@@ -2011,24 +2011,24 @@
       <c r="J41" s="7">
         <v>6</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="10"/>
+      <c r="C42" s="9"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="7" t="s">
         <v>47</v>
       </c>
       <c r="J42" s="7">
         <v>6</v>
       </c>
-      <c r="K42" s="10"/>
+      <c r="K42" s="9"/>
     </row>
     <row r="43" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
@@ -2089,15 +2089,15 @@
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
       <c r="J45" s="6">
         <f>SUM(J5:J44)</f>
         <v>240</v>
@@ -2109,26 +2109,13 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="F33:F39"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="H33:H39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="C26:C28"/>
@@ -2145,13 +2132,26 @@
     <mergeCell ref="G9:G25"/>
     <mergeCell ref="H9:H25"/>
     <mergeCell ref="K9:K25"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="H33:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cronograma/Cronograma-Actividades_Herrera.xlsx
+++ b/Cronograma/Cronograma-Actividades_Herrera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR-ALF\Documents\GitHub\5166_Documentacion_PPP_Herrera\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3365B28A-2069-404E-9965-F8BDA3BFBF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918F5929-2D95-4098-BC00-E2A8455F24D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{A5B410E4-0B70-458A-B29F-06FC5F5625EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Cronograma" sheetId="5" r:id="rId1"/>
@@ -608,6 +608,267 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">22/11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Implementación de mejoras en la infraestructura de redes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">25/11:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Configuración avanzada del router para optimizar la seguridad y el rendimiento.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15/11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Modificación de codigo fuente para obtención del apk</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Parte 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">26/11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Entrega de documentacion de lo realizado referente a la actualización</t>
+    </r>
+  </si>
+  <si>
+    <t>Revisión  del código de la app móvil</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18/11: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pruebas de compatibilidad en diversos dispositivos. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parte 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>19/11:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Pruebas de compatibilidad en diversos dispositivos. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parte 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Corrección de errores </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>30/09:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Revisión exhaustiva del código  para identificar posibles errores.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14/10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nueva revisión exhaustiva del código  para identificar posibles errores no detectados.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>15/10:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Descarga de nuevas librerias y componentes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">16/10:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prueba  y correcciones en la utilización de nuevas librerias y componentes.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">18/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pruebas de mejoras en diversos dispositivos. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parte 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">22/10: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pruebas de mejoras en diversos dispositivos.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Parte 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">21/11: </t>
     </r>
     <r>
@@ -618,268 +879,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Análisis de la red existente y detección de cuellos de botella</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">22/11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Implementación de mejoras en la infraestructura de redes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">25/11:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Configuración avanzada del router para optimizar la seguridad y el rendimiento.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>15/11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Modificación de codigo fuente para obtención del apk</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Parte 3</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">26/11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Entrega de documentacion de lo realizado referente a la actualización</t>
-    </r>
-  </si>
-  <si>
-    <t>Revisión  del código de la app móvil</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18/11: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pruebas de compatibilidad en diversos dispositivos. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Parte 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>19/11:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Pruebas de compatibilidad en diversos dispositivos. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Parte 2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">21/10: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Corrección de errores </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>30/09:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Revisión exhaustiva del código  para identificar posibles errores.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>14/10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Nueva revisión exhaustiva del código  para identificar posibles errores no detectados.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>15/10:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Descarga de nuevas librerias y componentes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">16/10:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prueba  y correcciones en la utilización de nuevas librerias y componentes.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">18/10: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pruebas de mejoras en diversos dispositivos. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Parte 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">22/10: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pruebas de mejoras en diversos dispositivos.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Parte 2</t>
+      <t xml:space="preserve">Análisis de la red existente </t>
     </r>
   </si>
 </sst>
@@ -979,17 +979,17 @@
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1307,8 +1307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5508007A-8F80-4A7F-BD52-B55F5D6EC2B9}">
   <dimension ref="C1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K25"/>
+    <sheetView tabSelected="1" topLeftCell="E37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1363,7 @@
       </c>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="11">
@@ -1375,10 +1375,10 @@
       <c r="F5" s="11">
         <v>45559</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="12">
         <v>0.58333333333333337</v>
       </c>
       <c r="I5" s="7" t="s">
@@ -1387,58 +1387,58 @@
       <c r="J5" s="7">
         <v>6</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="9"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="I6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="J6" s="7">
         <v>6</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
+      <c r="C7" s="10"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
       <c r="I7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="J7" s="7">
         <v>6</v>
       </c>
-      <c r="K7" s="9"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
       <c r="I8" s="7" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="7">
         <v>6</v>
       </c>
-      <c r="K8" s="9"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="9" t="s">
-        <v>51</v>
+      <c r="C9" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="D9" s="11">
         <v>45565</v>
@@ -1449,264 +1449,264 @@
       <c r="F9" s="11">
         <v>0</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="12">
         <v>0.58333333333333337</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J9" s="7">
         <v>6</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="10">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
       <c r="I10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="7">
         <v>6</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="9"/>
+      <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="7" t="s">
         <v>33</v>
       </c>
       <c r="J11" s="7">
         <v>6</v>
       </c>
-      <c r="K11" s="9"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
       <c r="I12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="J12" s="7">
         <v>6</v>
       </c>
-      <c r="K12" s="9"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="9"/>
+      <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
       <c r="I13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="J13" s="7">
         <v>6</v>
       </c>
-      <c r="K13" s="9"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="9"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
       <c r="I14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="J14" s="7">
         <v>6</v>
       </c>
-      <c r="K14" s="9"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C15" s="9"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
       <c r="I15" s="7" t="s">
         <v>31</v>
       </c>
       <c r="J15" s="7">
         <v>6</v>
       </c>
-      <c r="K15" s="9"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="9"/>
+      <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J16" s="7">
         <v>6</v>
       </c>
-      <c r="K16" s="9"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C17" s="9"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
       <c r="I17" s="7" t="s">
         <v>44</v>
       </c>
       <c r="J17" s="7">
         <v>6</v>
       </c>
-      <c r="K17" s="9"/>
+      <c r="K17" s="10"/>
     </row>
     <row r="18" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="9"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" s="7">
         <v>6</v>
       </c>
-      <c r="K18" s="9"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="9"/>
+      <c r="C19" s="10"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
       <c r="I19" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="7">
         <v>6</v>
       </c>
-      <c r="K19" s="9"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="9"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
       <c r="I20" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="7">
         <v>6</v>
       </c>
-      <c r="K20" s="9"/>
+      <c r="K20" s="10"/>
     </row>
     <row r="21" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" s="9"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="7" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="7">
         <v>6</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="10"/>
     </row>
     <row r="22" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="9"/>
+      <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J22" s="7">
         <v>6</v>
       </c>
-      <c r="K22" s="9"/>
+      <c r="K22" s="10"/>
     </row>
     <row r="23" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="9"/>
+      <c r="C23" s="10"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" s="7">
         <v>6</v>
       </c>
-      <c r="K23" s="9"/>
+      <c r="K23" s="10"/>
     </row>
     <row r="24" spans="3:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="9"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J24" s="7">
         <v>6</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="10"/>
     </row>
     <row r="25" spans="3:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="9"/>
+      <c r="C25" s="10"/>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="8" t="s">
         <v>28</v>
       </c>
       <c r="J25" s="7">
         <v>6</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="10"/>
     </row>
     <row r="26" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="11">
@@ -1718,10 +1718,10 @@
       <c r="F26" s="11">
         <v>45590</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="12">
         <v>0.58333333333333337</v>
       </c>
       <c r="I26" s="7" t="s">
@@ -1730,42 +1730,42 @@
       <c r="J26" s="7">
         <v>6</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" s="9"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
       <c r="I27" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J27" s="7">
         <v>6</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="3:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="9"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="J28" s="7">
         <v>6</v>
       </c>
-      <c r="K28" s="9"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="11">
@@ -1777,10 +1777,10 @@
       <c r="F29" s="11">
         <v>45596</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="12">
         <v>0.58333333333333337</v>
       </c>
       <c r="I29" s="7" t="s">
@@ -1789,57 +1789,57 @@
       <c r="J29" s="7">
         <v>6</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="9"/>
+      <c r="C30" s="10"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="7" t="s">
         <v>39</v>
       </c>
       <c r="J30" s="7">
         <v>6</v>
       </c>
-      <c r="K30" s="9"/>
+      <c r="K30" s="10"/>
     </row>
     <row r="31" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="9"/>
+      <c r="C31" s="10"/>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
       <c r="I31" s="7" t="s">
         <v>40</v>
       </c>
       <c r="J31" s="7">
         <v>6</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="10"/>
     </row>
     <row r="32" spans="3:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="C32" s="9"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
       <c r="I32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="J32" s="7">
         <v>6</v>
       </c>
-      <c r="K32" s="9"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="11">
@@ -1851,10 +1851,10 @@
       <c r="F33" s="11">
         <v>45607</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="12">
         <v>0.58333333333333337</v>
       </c>
       <c r="I33" s="7" t="s">
@@ -1863,99 +1863,99 @@
       <c r="J33" s="7">
         <v>6</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="10">
         <v>42</v>
       </c>
     </row>
     <row r="34" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C34" s="9"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
       <c r="I34" s="8" t="s">
         <v>42</v>
       </c>
       <c r="J34" s="7">
         <v>6</v>
       </c>
-      <c r="K34" s="9"/>
+      <c r="K34" s="10"/>
     </row>
     <row r="35" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C35" s="9"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
       <c r="I35" s="7" t="s">
         <v>36</v>
       </c>
       <c r="J35" s="7">
         <v>6</v>
       </c>
-      <c r="K35" s="9"/>
+      <c r="K35" s="10"/>
     </row>
     <row r="36" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C36" s="9"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
       <c r="I36" s="7" t="s">
         <v>37</v>
       </c>
       <c r="J36" s="7">
         <v>6</v>
       </c>
-      <c r="K36" s="9"/>
+      <c r="K36" s="10"/>
     </row>
     <row r="37" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C37" s="9"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
       <c r="I37" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J37" s="7">
         <v>6</v>
       </c>
-      <c r="K37" s="9"/>
+      <c r="K37" s="10"/>
     </row>
     <row r="38" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C38" s="9"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
       <c r="I38" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J38" s="7">
         <v>6</v>
       </c>
-      <c r="K38" s="9"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="3:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="9"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
       <c r="I39" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J39" s="7">
         <v>6</v>
       </c>
-      <c r="K39" s="9"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="3:11" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
@@ -1987,7 +1987,7 @@
       </c>
     </row>
     <row r="41" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="11">
@@ -1999,36 +1999,36 @@
       <c r="F41" s="11">
         <v>45618</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="12">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="12">
         <v>0.58333333333333337</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="J41" s="7">
         <v>6</v>
       </c>
-      <c r="K41" s="9">
+      <c r="K41" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="42" spans="3:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="9"/>
+      <c r="C42" s="10"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
       <c r="I42" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J42" s="7">
         <v>6</v>
       </c>
-      <c r="K42" s="9"/>
+      <c r="K42" s="10"/>
     </row>
     <row r="43" spans="3:11" ht="45" x14ac:dyDescent="0.25">
       <c r="C43" s="3" t="s">
@@ -2050,7 +2050,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J43" s="3">
         <v>6</v>
@@ -2079,7 +2079,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J44" s="3">
         <v>6</v>
@@ -2089,15 +2089,15 @@
       </c>
     </row>
     <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="6">
         <f>SUM(J5:J44)</f>
         <v>240</v>
@@ -2109,13 +2109,26 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="K29:K32"/>
+    <mergeCell ref="G29:G32"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="E33:E39"/>
+    <mergeCell ref="F33:F39"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="F29:F32"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
+    <mergeCell ref="F5:F8"/>
+    <mergeCell ref="G5:G8"/>
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="C26:C28"/>
@@ -2132,26 +2145,13 @@
     <mergeCell ref="G9:G25"/>
     <mergeCell ref="H9:H25"/>
     <mergeCell ref="K9:K25"/>
-    <mergeCell ref="C5:C8"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="E5:E8"/>
-    <mergeCell ref="F5:F8"/>
-    <mergeCell ref="G5:G8"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="F29:F32"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="K29:K32"/>
-    <mergeCell ref="G29:G32"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="E33:E39"/>
-    <mergeCell ref="F33:F39"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
